--- a/MEDIA/_ 2281 _001_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2281 _001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2281 _001_2020-10-01~2020-10-20)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2281 _001_2020-10-31~2020-10-31)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>9287800</v>
+        <v>7581440</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201008</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖#109743-10906台北展NO.64-于海珍    </t>
+          <t>沖桃園國強設備款                      </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>500</v>
+        <v>1020000</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9287300</v>
+        <v>6561440</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109743</t>
+          <t>110798</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201012</t>
+          <t>20201031</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,188 +483,24 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10906月台北展NO113賴姿妤-桃園國強 工程款26萬 </t>
+          <t>沖竹北嘉興設備款                      </t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>638000</v>
+      </c>
+      <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>-260000</v>
-      </c>
       <c r="G5" t="n">
-        <v>9547300</v>
+        <v>5923440</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>109909</t>
+          <t>110754</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10906台北展NO.125-蘇炳文-大里內新 3萬    </t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-30000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9577300</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>109982</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>20201013</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10906台北展NO.117-蕭惠文-北市光復 工程款   </t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-249740</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9827040</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>109995</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>20201017</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>10906台北展NO.65-陳永淯/吳楚雲-竹北嘉興 工程款</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-78000</v>
-      </c>
-      <c r="G8" t="n">
-        <v>9905040</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>110208</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>20201019</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10910台北展訂金                    </t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-5650</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9910690</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>110210</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/MEDIA/_ 2281 _001_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2281 _001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2281 _001_2020-10-31~2020-10-31)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2281 _001_2020-11-20~2020-11-27)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>7581440</v>
+        <v>6982131</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>沖桃園國強設備款                      </t>
+          <t>沖#110210-10910月台北展NO.58-李詩雁   </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1020000</v>
+        <v>500</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6561440</v>
+        <v>6981631</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110798</t>
+          <t>111637</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201031</t>
+          <t>20201120</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,24 +483,680 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>沖竹北嘉興設備款                      </t>
+          <t>沖#110210-10910月台北展NO.11-陳柏文   </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>638000</v>
+        <v>500</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5923440</v>
+        <v>6981131</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110754</t>
+          <t>111680</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沖#110210-10910月台北展NO.93-陳凱緯   </t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>500</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6980631</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>111637</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沖#110210-10910月台北展NO.78-鄭松迪   </t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>500</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6980131</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>111637</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沖#110210-10910月台北展NO.12-鐘咏蓁   </t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>500</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6979631</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>111637</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沖#110210-10910月台北展NO.79-林雅雯   </t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>500</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6979131</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>111637</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沖#110210-10910月台北展NO.31-林建男   </t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6978631</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>111637</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20201120</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沖#110210-10910月台北展NO.63-蔡皇毅   </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>500</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6978131</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>111637</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沖#110210-10910月台北展NO.40-黃彥婷   </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>500</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6977631</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>112039</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.58-蕭柏松    </t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>500</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6977131</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>112039</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.88-胡嘉琪    </t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>500</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>6976631</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>111974</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10910月台北展NO.106-李俊宏           </t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>500</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6976131</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>111974</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沖#111270-10910月北展NO14-謝志龍代尋2萬 </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6956131</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>111974</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沖#1102110910月台北展NO.14-謝志龍     </t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>500</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6955631</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>111974</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沖#105807-10906台北展NO.63-錢皓天    </t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>500</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>6955131</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>111983</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沖#110210-10910月台北展NO.76-王荷熏   </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>500</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6954631</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>111983</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10906北展NO131-曾家祥退代尋扣5000      </t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6949631</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>111982</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20201127</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2281  .001     </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沖#1075310906月台北展NO131曾家祥 退代尋  </t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>15500</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6934131</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>111983</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
